--- a/深信服防火墙批量封禁工具/已封禁IP表.xlsx
+++ b/深信服防火墙批量封禁工具/已封禁IP表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>IP地址</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>192.168.21.7</t>
+  </si>
+  <si>
+    <t>192.168.55.0-192.168.55.255</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1053,7 @@
   <dimension ref="A1:C884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1074,7 +1077,6 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1085,6 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1093,6 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4"/>
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -1101,7 +1101,6 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1109,6 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -1119,7 +1117,6 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -1128,8 +1125,15 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8"/>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
